--- a/excels/excel.xlsx
+++ b/excels/excel.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Беспроводные наушники</t>
   </si>
   <si>
-    <t xml:space="preserve">Написать описание товара с использованием указанных мной ключевых слов, длина текста должна быть СТРОГО от 4000 до 5000 символов, не меньше не больше.Важно не изменять ключевые слова в тексте и использовать их как есть</t>
+    <t xml:space="preserve">Написать описание товара с использованием указанных мной ключевых слов, длина текста должна быть СТРОГО от 4000 до 5000 символов, не меньше не больше. Важно не изменять ключевые слова в тексте и использовать их как есть</t>
   </si>
   <si>
     <t xml:space="preserve">Наушники беспроводные черные, Наушники Безпроводные,Наушники беспроводные большие черные, наушники черные, Беспроводные наушники черные, нушники беспроводные для телефона черные блютуз,гарнитур</t>
@@ -178,7 +178,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
